--- a/uploads/student_import.xlsx
+++ b/uploads/student_import.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCM\Desktop\07-10-2017-bulk_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4155"/>
   </bookViews>
   <sheets>
     <sheet name="all_student_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>First Name</t>
   </si>
@@ -43,101 +43,103 @@
     <t>Category</t>
   </si>
   <si>
-    <t>select_parent</t>
-  </si>
-  <si>
-    <t>course_major</t>
-  </si>
-  <si>
-    <t>select_class</t>
-  </si>
-  <si>
-    <t>select_section</t>
-  </si>
-  <si>
-    <t>previous_school</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>place_of_birth</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>card_id</t>
-  </si>
-  <si>
-    <t>passport_number</t>
-  </si>
-  <si>
-    <t>icard_type</t>
+    <t>Select Parent</t>
+  </si>
+  <si>
+    <t>Course Major</t>
+  </si>
+  <si>
+    <t>Select Class</t>
+  </si>
+  <si>
+    <t>Select Section</t>
+  </si>
+  <si>
+    <t>Previous School</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Place Of Birth</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Card Id</t>
+  </si>
+  <si>
+    <t>Icard Type</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>test stud name</t>
+  </si>
+  <si>
+    <t>temp stud name</t>
+  </si>
+  <si>
+    <t>12.10.2016</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>useremail123@emamil.com</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>no prev</t>
+  </si>
+  <si>
+    <t>no addrss</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>dsa</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>student fname</t>
-  </si>
-  <si>
-    <t>student m name</t>
-  </si>
-  <si>
-    <t>student lname</t>
-  </si>
-  <si>
-    <t>10.10.2017</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>studentemail@studentemail.com</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>no prev school</t>
-  </si>
-  <si>
-    <t>no address</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>no place</t>
-  </si>
-  <si>
-    <t>sacsacdc</t>
-  </si>
-  <si>
-    <t>bnn</t>
-  </si>
-  <si>
-    <t>father@father.com</t>
+    <t>studemail12@studemail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,11 +171,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -479,162 +482,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="1">
+        <v>3689125988</v>
+      </c>
+      <c r="R2" s="1">
+        <v>32144</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2">
-        <v>232423434</v>
-      </c>
-      <c r="R2">
-        <v>232424</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
